--- a/medicine/Enfance/Bertrand_Puard/Bertrand_Puard.xlsx
+++ b/medicine/Enfance/Bertrand_Puard/Bertrand_Puard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertrand Puard, né le 7 novembre 1977 à Paris, est un romancier et scénariste français. Il a utilisé dans le passé les pseudonymes Ewan Blackshore, Brad Winter et Benjamin Bates et a été animateur de radio et directeur de collection.
 </t>
@@ -511,22 +523,24 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné de littérature, Bertrand Puard entre comme lecteur aux Éditions du Masque.
 Il fait ses débuts d'écrivain en publiant une nouvelle, Et la lumière fut (1998). Il fait paraître son premier roman, Musique de nuit et celui-ci obtient le prix du roman policier du festival de Cognac 2001. Sous le pseudonyme d'Ewan Blackshore, il inaugure en 2002 la série "Les Mystères de la Tamise" qui s'inscrit entre la comédie policière et la parodie des romans d'énigme.
 En 2008, après s'être illustré dans deux veines distinctes (le thriller et l'énigme parodique), Bertrand Puard se consacre à la littérature de jeunesse avec la série de romans Les Compagnons du Sablier, chez Flammarion.
 De 2008 à 2010, il anime une émission radiophonique mensuelle sur IDFM98, « Pot-Bouille », consacrée à la littérature, au cinéma, à la musique et à l'art, et il dirige une collection chez Pascal Galodé Éditeurs, « Destins Croisés », consacrée aux rencontres (fictives ou réelles) survenues dans l'adolescence entre deux personnages célèbres.
-En 2012, il obtient le prix Cognac Jeunesse pour sa série Les Effacés (Hachette)[1].
-Son roman Vol 1618 est optionné par Makingprod[2] pour réaliser une série télévisée de 8X52'.
-Son roman « Ctrl + Alt + Suppr » qui traite du thème des fake news et de l'intelligence artificielle, a fait l'objet d'une interaction avec les lecteurs, au moment de son écriture. Durant deux mois, Bertrand Puard a publié chaque semaine un épisode de son thriller sur France info et a proposé à ses lecteurs des choix, pour orienter les épisodes suivants[3].
-En septembre 2020, Bertrand Puard collabore au projet de médiation qui réunit l’association Le Chien jaune, les Éditions du Rocher et le Musée de Pont-Aven, en écrivant Les Mystérieux visages de Pont-Aven[4]. Bertrand Puard renouvelle l'expérience avec Le Regard diabolique, novella écrite pour le Musée d'arts de Nantes[5]. Remise gratuitement à tous les visiteurs adolescents à leur arrivée au musée, l'histoire s'appuie sur l'univers et l'héroïne de sa série Hippocampus, pour mettre en récit et documenter le parcours artistique de l’exposition « Hypnose » (musée d’Arts de Nantes, 16 octobre 2020 – 31 janvier 2021)[6].
+En 2012, il obtient le prix Cognac Jeunesse pour sa série Les Effacés (Hachette).
+Son roman Vol 1618 est optionné par Makingprod pour réaliser une série télévisée de 8X52'.
+Son roman « Ctrl + Alt + Suppr » qui traite du thème des fake news et de l'intelligence artificielle, a fait l'objet d'une interaction avec les lecteurs, au moment de son écriture. Durant deux mois, Bertrand Puard a publié chaque semaine un épisode de son thriller sur France info et a proposé à ses lecteurs des choix, pour orienter les épisodes suivants.
+En septembre 2020, Bertrand Puard collabore au projet de médiation qui réunit l’association Le Chien jaune, les Éditions du Rocher et le Musée de Pont-Aven, en écrivant Les Mystérieux visages de Pont-Aven. Bertrand Puard renouvelle l'expérience avec Le Regard diabolique, novella écrite pour le Musée d'arts de Nantes. Remise gratuitement à tous les visiteurs adolescents à leur arrivée au musée, l'histoire s'appuie sur l'univers et l'héroïne de sa série Hippocampus, pour mettre en récit et documenter le parcours artistique de l’exposition « Hypnose » (musée d’Arts de Nantes, 16 octobre 2020 – 31 janvier 2021).
 Il est membre de la Société Littéraire des Amis d'Émile Zola.
-Bertrand Puard est également membre du jury du Festival Polar de Cognac depuis 2015 (catégories courts et longs métrages, séries et films télévisés)[7], puis Président du jury en 2020, 2021 et 2022.
+Bertrand Puard est également membre du jury du Festival Polar de Cognac depuis 2015 (catégories courts et longs métrages, séries et films télévisés), puis Président du jury en 2020, 2021 et 2022.
 En 2022 et 2023, Bertrand Puard inaugure deux séries de roman jeunesse en collaboration avec deux personnalités : Abracadabra avec le prestidigitateur Éric Antoine et Le Club des aventuriers, avec l'aventurier Mike Horn.
-En 2023, il signe Lupin : Échec à la reine, un spin-off préquel de la série Lupin, diffusée sur Netflix et mettant en scène Omar Sy. Les événements se déroulent avant ceux du programme[8].
-À la demande de Philippe Gloaguen, le fondateur et directeur des Guides du Routard, Bertrand Puard lance en 2024 la collection « Mission Routard » : les premiers guides du Routard romancés, destinés à un jeune lectorat[9]. Trois destinations paraissent pour le lancement de la collection : les 
-Châteaux de la Loire, Rome et Londres[10].
+En 2023, il signe Lupin : Échec à la reine, un spin-off préquel de la série Lupin, diffusée sur Netflix et mettant en scène Omar Sy. Les événements se déroulent avant ceux du programme.
+À la demande de Philippe Gloaguen, le fondateur et directeur des Guides du Routard, Bertrand Puard lance en 2024 la collection « Mission Routard » : les premiers guides du Routard romancés, destinés à un jeune lectorat. Trois destinations paraissent pour le lancement de la collection : les 
+Châteaux de la Loire, Rome et Londres.
 </t>
         </is>
       </c>
@@ -555,16 +569,18 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur fond de pop anglaise, Musique de nuit met en scène Paul Kite, inspecteur au New Scotland Yard, qui enquête officieusement sur un tueur en série, lequel laisse toujours un indice musical près de ses victimes[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur fond de pop anglaise, Musique de nuit met en scène Paul Kite, inspecteur au New Scotland Yard, qui enquête officieusement sur un tueur en série, lequel laisse toujours un indice musical près de ses victimes.
 Dans son deuxième roman, Alice au pays des cauchemars (2001), l'auteur plonge son enquêteur au cœur d'une petite communauté passionnée par les contes de fées, le surnaturel et les mythes, laquelle vit sur une petite île au large des côtes écossaises.
 La Petite fille, le coyote et la mort est publié en 2003.
 L'intrigue de Requiem pour Cézanne (2006), qui se déroule entre Paris et Aix-en-Provence.
 Dans sa série "Les Mystères de la Tamise" signée du pseudonyme d'Ewan Blackshore, Ted Scribble, feuilletoniste aux fortes ambitions littéraires, devient - bien malgré lui - détective amateur, dans le Londres de Sherlock Holmes. La série comprend dix titres.
 Écrit sous le pseudonyme de Brad Winter, Le Mannequin aux yeux jaunes est publié en 2001.
 Dans Les Compagnons du sablier (Flammarion jeunesse, 2 tomes, 2008), une patrouille d'adolescents vit dans une ville qui compte un métro du temps.
-Alexandre, l’intrépide Dumas (Hachette jeunesse, 2019) est une biographie imaginaire du jeune Alexandre Dumas où il vit des aventures qui préfigurent Le Comte de Monte-Cristo[12]. Dans la même optique, deux romans sur les jeunesses d'Émile Zola et de Victor Hugo suivront.
+Alexandre, l’intrépide Dumas (Hachette jeunesse, 2019) est une biographie imaginaire du jeune Alexandre Dumas où il vit des aventures qui préfigurent Le Comte de Monte-Cristo. Dans la même optique, deux romans sur les jeunesses d'Émile Zola et de Victor Hugo suivront.
 </t>
         </is>
       </c>
@@ -595,12 +611,58 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Séries
-Les Compagnons du Sablier
-Les Momies de Cléopâtre. Paris : Flammarion, 03/2008, 248 p.  (ISBN 978-2-08-121082-0)
-César contre-attaque. Paris : Flammarion, 11/2008, 316 p.  (ISBN 978-2-08-121101-8)
-Les Effacés
-Romans
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les Compagnons du Sablier</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Momies de Cléopâtre. Paris : Flammarion, 03/2008, 248 p.  (ISBN 978-2-08-121082-0)
+César contre-attaque. Paris : Flammarion, 11/2008, 316 p.  (ISBN 978-2-08-121101-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Les Effacés</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Romans
 1. Opération 1 - Toxicité maximale.
 Paris : Hachette Jeunesse, 04/2012, 355 p.  (ISBN 978-2-01-202375-8)
 Paris : France loisirs, 2013, 355 p.  (ISBN 978-2-298-06466-7)
@@ -631,14 +693,90 @@
 L'Effacement d'Ilsa et de Zacharie
 L'Effacement d'Émile
 Bande dessinée
-Les Effacés (tome 1) / scénario Bertrand Puard ; dessin Raphaël Drommelschlager ; couleurs Véro Borev. Paris : Hachette comics, janvier 2016, 48 p.  (ISBN 978-2-01-401809-7)
-Bleu Blanc Sang
-Bleu. Paris : Hachette Romans, 10/2016, 309 p.  (ISBN 978-2-01-171047-5). Rééd. Paris : Éd. de Noyelles, 2016, 309 p.  (ISBN 978-2-298-11976-3)
+Les Effacés (tome 1) / scénario Bertrand Puard ; dessin Raphaël Drommelschlager ; couleurs Véro Borev. Paris : Hachette comics, janvier 2016, 48 p.  (ISBN 978-2-01-401809-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bleu Blanc Sang</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bleu. Paris : Hachette Romans, 10/2016, 309 p.  (ISBN 978-2-01-171047-5). Rééd. Paris : Éd. de Noyelles, 2016, 309 p.  (ISBN 978-2-298-11976-3)
 Blanc. Paris : Hachette Romans, 10/2016, 309 p.  (ISBN 978-2-01-171281-3). Rééd. Paris : Éd. de Noyelles, 2016, 309 p.  (ISBN 978-2-298-11977-0)
 Sang. Paris : Hachette Romans, 10/2016, 308 p.  (ISBN 978-2-01-171287-5). Rééd. Paris : Éd. de Noyelles, 2016, 309 p.  (ISBN 978-2-298-11978-7)
-La trilogie en un volume : Le Livre de poche jeunesse, 04/2019, 178 p.  (ISBN 978-2-01-708046-6)
-Les Aventuriers de l'étrange
-Le Mystère du frelon de sable. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", septembre 2017, 151 p.  (ISBN 978-2-01-702092-9)
+La trilogie en un volume : Le Livre de poche jeunesse, 04/2019, 178 p.  (ISBN 978-2-01-708046-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les Aventuriers de l'étrange</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Mystère du frelon de sable. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", septembre 2017, 151 p.  (ISBN 978-2-01-702092-9)
 Le Mystère de la station fantôme. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", janvier 2018, 160 p.  (ISBN 978-2-01-702093-6)
 Le Mystère du Mandrake's College. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", mars 2018, 160 p.  (ISBN 978-2-01-702094-3)
 Le Mystère du dragon aux yeux rouges. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", juin 2018, 160 p.  (ISBN 978-2-01-704851-0)
@@ -647,81 +785,753 @@
 Le Mystère du sorcier à la tête de loup. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", 02/2019, 160 p.  (ISBN 978-2-01-118319-4)
 Le Mystère de l'obscure galaxie. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", 06/2019, 160 p.  (ISBN 978-2-01-709002-1)
 Le Mystère de la ferme aux citrouilles. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", 10/2019, 160 p.  (ISBN 978-2-01-710501-5)
-Hors série : Les Aventuriers de l'étrange : c'est toi le héros. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", juin 2018, 160 p.  (ISBN 978-2-01-704868-8)
-L’Archipel
-Latitude. Bruxelles : Casterman, 02/2018, 288 p.  (ISBN 978-2-203-15664-7)
+Hors série : Les Aventuriers de l'étrange : c'est toi le héros. Vanves : Hachette Jeunesse, coll. "Bibliothèque verte. Plus", juin 2018, 160 p.  (ISBN 978-2-01-704868-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>L’Archipel</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Latitude. Bruxelles : Casterman, 02/2018, 288 p.  (ISBN 978-2-203-15664-7)
 Longitude. Bruxelles : Casterman, 08/2018, 353 p.  (ISBN 978-2-203-15665-4)
-Altitude. Bruxelles : Casterman, 02/2019, 350 p.  (ISBN 978-2-203-18126-7)
-Ctrl+Alt+Suppr
-Saison 1. Bruxelles : Casterman, 06/2019, 258 p.  (ISBN 978-2-203-19680-3)
-Saison 2. Bruxelles : Casterman, 11/2020, 258 p.  (ISBN 978-2-203-20746-2)
-Clepsydre
-Clepsydre sur Seine. Monaco : Éd. du Rocher, coll. "Quêtes en enquêtes policier", 06/2019, 220 p.  (ISBN 978-2-268-10184-2)
+Altitude. Bruxelles : Casterman, 02/2019, 350 p.  (ISBN 978-2-203-18126-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ctrl+Alt+Suppr</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Saison 1. Bruxelles : Casterman, 06/2019, 258 p.  (ISBN 978-2-203-19680-3)
+Saison 2. Bruxelles : Casterman, 11/2020, 258 p.  (ISBN 978-2-203-20746-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Clepsydre</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Clepsydre sur Seine. Monaco : Éd. du Rocher, coll. "Quêtes en enquêtes policier", 06/2019, 220 p.  (ISBN 978-2-268-10184-2)
 Clepsydre sur Saône. Monaco : Éd. du Rocher, coll. "Quêtes en enquêtes policier", 02/2020, 250 p.  (ISBN 978-2-268-10302-0)
-Nouvelle : Les Mystérieux visages de Pont-Aven. Nouvelle coéditée par les Éditions du Rocher, les Amis du Musée de Pont-Aven et l'Association Le Chien jaune, 09/2020[4].
-30 minutes pour survivre
-D'après The Danger Series, série créée par Jack Heath :
+Nouvelle : Les Mystérieux visages de Pont-Aven. Nouvelle coéditée par les Éditions du Rocher, les Amis du Musée de Pont-Aven et l'Association Le Chien jaune, 09/2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>30 minutes pour survivre</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>D'après The Danger Series, série créée par Jack Heath :
 Le Zoo de tous les dangers / sous le pseudonyme de Ewan Blackshore. Paris : Albin Michel jeunesse, coll. "30 minutes pour survivre" no 5, 07/2018, 192 p.  (ISBN 978-2-226-43612-2)
 Le Temple maudit de Cetho Wukir. Paris : Albin Michel jeunesse, coll. "30 minutes pour survivre" no 7, 01/2019, 192 p.  (ISBN 978-2-226-44009-9)
 La Mission lune ne répond plus / en collaboration avec Neil Puard. Paris : Albin Michel jeunesse, coll. "30 minutes pour survivre", 06/2019, 208 p.  (ISBN 978-2-226-44147-8)
 Virus mortel / en collaboration avec Neil Puard. Paris : Albin Michel jeunesse, coll. "30 minutes pour survivre", 01/2020, 208 p.  (ISBN 978-2-226-44491-2)
 L'Odyssée de la peur / en collaboration avec Neil Puard. Paris : Albin Michel jeunesse, coll. "30 minutes pour survivre", 07/2020, 192 p.  (ISBN 978-2-226-44913-9).
-Le Manoir où la mort rôde / en collaboration avec Neil Puard. Paris : Albin Michel jeunesse, coll. "30 minutes pour survivre", 09/2021, 181 p.  (ISBN 978-2-226-45129-3)
-La jeunesse des grands écrivains français
-Alexandre : l'intrépide Dumas. Vanves : Hachette jeunesse, 06/2018, 208 p.  (ISBN 978-2-01-626927-5). Rééd. Le Livre de Poche jeunesse, 02/2020, 208 p.  (ISBN 978-2-01-711898-5)
+Le Manoir où la mort rôde / en collaboration avec Neil Puard. Paris : Albin Michel jeunesse, coll. "30 minutes pour survivre", 09/2021, 181 p.  (ISBN 978-2-226-45129-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>La jeunesse des grands écrivains français</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Alexandre : l'intrépide Dumas. Vanves : Hachette jeunesse, 06/2018, 208 p.  (ISBN 978-2-01-626927-5). Rééd. Le Livre de Poche jeunesse, 02/2020, 208 p.  (ISBN 978-2-01-711898-5)
 Émile : l'intraitable Zola. Vanves : Hachette jeunesse, 09/2018, 200 p.  (ISBN 978-2-01-626928-2). Rééd. Le Livre de Poche jeunesse, 08/2020, 208 p.  (ISBN 978-2-01-711929-6)
-Victor : l'indomptable Hugo. Vanves : Hachette jeunesse, 02/2019, 200 p.  (ISBN 978-2-01-627040-0). Rééd. Le Livre de Poche jeunesse, 08/2020, 192 p.  (ISBN 978-2-01-628817-7)
-Trouille Académie
-L'École de toutes les peurs / illustrations Claudia Petrazzi. Paris : Poulpe fictions, 02/2020, 153 p.  (ISBN 978-2-37742-097-1)
+Victor : l'indomptable Hugo. Vanves : Hachette jeunesse, 02/2019, 200 p.  (ISBN 978-2-01-627040-0). Rééd. Le Livre de Poche jeunesse, 08/2020, 192 p.  (ISBN 978-2-01-628817-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Trouille Académie</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L'École de toutes les peurs / illustrations Claudia Petrazzi. Paris : Poulpe fictions, 02/2020, 153 p.  (ISBN 978-2-37742-097-1)
 La Boîte maléfique / illustrations Claudia Petrazzi. Paris : Poulpe fictions, 02/2020, 164 p.  (ISBN 978-2-37742-100-8)
 L'Orchestre aux dents pointues / illustrations Claudia Petrazzi. Paris : Poulpe fictions, 09/2020, 168 p.  (ISBN 978-2-37742-101-5)
-Fantômes connectés / illustrations Claudia Petrazzi. Paris : Poulpe fictions, 02/2021, 147 p.  (ISBN 978-2-37742-140-4)
-Hippocampus
-Le Laboratoire secret. Paris : Seuil jeunesse, coll. "Fiction grand format", 06/2020, 227 p.  (ISBN 979-10-235-1398-1)
+Fantômes connectés / illustrations Claudia Petrazzi. Paris : Poulpe fictions, 02/2021, 147 p.  (ISBN 978-2-37742-140-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hippocampus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le Laboratoire secret. Paris : Seuil jeunesse, coll. "Fiction grand format", 06/2020, 227 p.  (ISBN 979-10-235-1398-1)
 17 secondes pour comprendre. Paris : Seuil jeunesse, coll. "Fiction grand format", 10/2020, 272 p.  (ISBN 979-10-235-1402-5)
-Le Regard diabolique. Coédition Éditions du Seuil - Musée d'arts de Nantes, 2020, 32 p. Novella policière  remise gratuitement à tous les visiteurs adolescents du musée d'arts de Nantes. Elle s'appuie sur l'univers et l'héroïne de la série Hippocampus.
-Le Royaume des Quatre-murs
-Le Donjon noir / illustrations Nicolas Vallée. Paris : Auzou, coll. "Romans. Pas de géant", 01/2021, 90 p.  (ISBN 978-2-7338-8702-8)
-La Forêt des elfes / illustrations Nicolas Vallée. Paris : Auzou, coll. "Romans. Pas de géant", 10/2021, 90 p.  (ISBN 978-2-7338-8761-5)
-Kaimyo : le nom des morts
-Les Papillons de Kobé. Nantes : Gulf Stream, 05/2021, 208 p.  (ISBN 978-2-35488-894-7)
-Les Chrysalides de Tunis. Nantes : Gulf Stream, 11/2021, 229 p.  (ISBN 978-2-35488-916-6)
-C'est la Révolution !
-Prisonniers de la Bastille. Bruxelles : Casterman, coll. "Les grands formats", 11/2021, 112 p.  (ISBN 978-2-203-22636-4)
-Les gardiens de la Déclaration. Bruxelles : Casterman, coll. "Les grands formats", 04/2022, 112 p.  (ISBN 978-2-203-23747-6)
-Abracadabra
-La Baguette volée / en collaboration avec Éric Antoine. Paris : Livres du Dragon d'or, 06/2022, 171 p.  (ISBN 978-2-8212-1551-1)
+Le Regard diabolique. Coédition Éditions du Seuil - Musée d'arts de Nantes, 2020, 32 p. Novella policière  remise gratuitement à tous les visiteurs adolescents du musée d'arts de Nantes. Elle s'appuie sur l'univers et l'héroïne de la série Hippocampus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Le Royaume des Quatre-murs</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le Donjon noir / illustrations Nicolas Vallée. Paris : Auzou, coll. "Romans. Pas de géant", 01/2021, 90 p.  (ISBN 978-2-7338-8702-8)
+La Forêt des elfes / illustrations Nicolas Vallée. Paris : Auzou, coll. "Romans. Pas de géant", 10/2021, 90 p.  (ISBN 978-2-7338-8761-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Kaimyo : le nom des morts</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Les Papillons de Kobé. Nantes : Gulf Stream, 05/2021, 208 p.  (ISBN 978-2-35488-894-7)
+Les Chrysalides de Tunis. Nantes : Gulf Stream, 11/2021, 229 p.  (ISBN 978-2-35488-916-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C'est la Révolution !</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Prisonniers de la Bastille. Bruxelles : Casterman, coll. "Les grands formats", 11/2021, 112 p.  (ISBN 978-2-203-22636-4)
+Les gardiens de la Déclaration. Bruxelles : Casterman, coll. "Les grands formats", 04/2022, 112 p.  (ISBN 978-2-203-23747-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Abracadabra</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>La Baguette volée / en collaboration avec Éric Antoine. Paris : Livres du Dragon d'or, 06/2022, 171 p.  (ISBN 978-2-8212-1551-1)
 Le Cirque fantôme / en collaboration avec Éric Antoine. Paris : Livres du Dragon d'or, 10/2022, 168 p.  (ISBN 978-2-8212-1581-8)
-Le Trésor du corsaire / en collaboration avec Éric Antoine. Paris : Livres du Dragon d'or, 03/2023, 168 p.  (ISBN 978-2-8212-1608-2)
-L'École des mousquetaires
-Volume 1. Paris : PKJ, 11/2022, 245 p.  (ISBN 978-2-266-32667-4)
+Le Trésor du corsaire / en collaboration avec Éric Antoine. Paris : Livres du Dragon d'or, 03/2023, 168 p.  (ISBN 978-2-8212-1608-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>L'École des mousquetaires</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Volume 1. Paris : PKJ, 11/2022, 245 p.  (ISBN 978-2-266-32667-4)
 Volume 2. Paris : PKJ, 03/2023, 245 p.  (ISBN 978-2-266-33054-1)
-Volume 3. Paris : PKJ, 03/2024, 272 p.  (ISBN 978-2-266-34186-8)
-Mike Horn : Le club des aventuriers
-Bienvenue au club ! Paris : PKJ, 05/2023, 160 p.  (ISBN 978-2-266-32515-8)
+Volume 3. Paris : PKJ, 03/2024, 272 p.  (ISBN 978-2-266-34186-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Mike Horn : Le club des aventuriers</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bienvenue au club ! Paris : PKJ, 05/2023, 160 p.  (ISBN 978-2-266-32515-8)
 Le Tour du monde en 192 heures. Paris : PKJ, 11/2023, 389 p.  (ISBN 978-2-266-32516-5)
-Le Trésor des Trois Océans. Paris : PKJ, 06/2024, 160 p.  (ISBN 978-2-266-32571-4)
-Cluedo romans policiers
-Coup de théâtre pour Moutarde. Vanves : Hachette jeunesse, coll. "Bibliothèque verte. Plus. Cluedo Romans policiers" no 1, 06/2023, 160 p.  (ISBN 978-2-01-715410-5)
+Le Trésor des Trois Océans. Paris : PKJ, 06/2024, 160 p.  (ISBN 978-2-266-32571-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cluedo romans policiers</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Coup de théâtre pour Moutarde. Vanves : Hachette jeunesse, coll. "Bibliothèque verte. Plus. Cluedo Romans policiers" no 1, 06/2023, 160 p.  (ISBN 978-2-01-715410-5)
 Pervenche passe à l'action. Vanves : Hachette jeunesse, coll. "Bibliothèque verte. Plus. Cluedo Romans policiers" no 2, 08/2023, 148 p.  (ISBN 978-2-01-715414-3)
 Course contre la montre pour Rose. Vanves : Hachette jeunesse, coll. "Bibliothèque verte. Plus. Cluedo Romans policiers" no 3, 10/2023, 152 p.  (ISBN 978-2-01-724529-2)
-Coup gagnant pour Violet. Vanves : Hachette jeunesse, coll. "Bibliothèque verte. Plus. Cluedo Romans policiers" no 4, 03/2024, 160 p.  (ISBN 978-2-01-724532-2)
-Les Arsène
-La Clef aux trois joyaux. Paris : Poulpe fictions, 10/2023, 207 p.  (ISBN 978-2-37742-325-5)
-L'Île du corbeau. Paris : Poulpe fictions, 04/2024, 168 p.  (ISBN 978-2-37742-326-2)
-One shots
-Vol 1618. Paris : Hachette jeunesse, 11/2014  (ISBN 978-2-01-204330-5). Rééd. Le Livre de poche jeunesse, 10/2016, 242 p. En bonus : extrait de Bleu.  (ISBN 978-2-01-911003-1)
+Coup gagnant pour Violet. Vanves : Hachette jeunesse, coll. "Bibliothèque verte. Plus. Cluedo Romans policiers" no 4, 03/2024, 160 p.  (ISBN 978-2-01-724532-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Les Arsène</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>La Clef aux trois joyaux. Paris : Poulpe fictions, 10/2023, 207 p.  (ISBN 978-2-37742-325-5)
+L'Île du corbeau. Paris : Poulpe fictions, 04/2024, 168 p.  (ISBN 978-2-37742-326-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>One shots</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Vol 1618. Paris : Hachette jeunesse, 11/2014  (ISBN 978-2-01-204330-5). Rééd. Le Livre de poche jeunesse, 10/2016, 242 p. En bonus : extrait de Bleu.  (ISBN 978-2-01-911003-1)
 Un été à la folie / cadavre exquis composé par trente auteurs, revue Je Bouquine no 365, juillet 2014
 Qu'est-il arrivé à Lady Brenda ?, Je Bouquine no 376, juin 2015, ill. d'Erwann Surcouf, 42 p.
 Vibrato. Nantes : Gulf Stream, coll. "Échos", 08/2023, 240 p.  (ISBN 978-2-38349-128-6)
-Lupin : échec à la reine. Vanves : Hachette romans, 09/2023, 300 p.  (ISBN 978-2-01-714770-1). Réédition Petit Homme, 09/2023.  (ISBN 978-2-89754-382-2)
-Guides
-Mission Routard, le guide du routard dont tu es le héros
+Lupin : échec à la reine. Vanves : Hachette romans, 09/2023, 300 p.  (ISBN 978-2-01-714770-1). Réédition Petit Homme, 09/2023.  (ISBN 978-2-89754-382-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Guides</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Mission Routard, le guide du routard dont tu es le héros
 Rome. Paris : Hachette Tourisme, coll. "Mission Routard", 03/2024, 160 p.  (ISBN 978-2-01-723355-8)
 Châteaux de la Loire. Paris : Hachette Tourisme, coll. "Mission Routard", 03/2024, 160 p.  (ISBN 978-2-01-723351-0)
-Londres. Paris : Hachette Tourisme, coll. "Mission Routard", 03/2024, 160 p.  (ISBN 978-2-01-723353-4)
-Livres-jeux
-Les Mystères de Pékin : c'est toi le héros. Vanves : Hachette romans, coll. "Bibliothèque verte. Plus. Aventures sur mesure XXL", 10/2020, 144 p.  (ISBN 978-2-01-628922-8)
+Londres. Paris : Hachette Tourisme, coll. "Mission Routard", 03/2024, 160 p.  (ISBN 978-2-01-723353-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Livres-jeux</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Les Mystères de Pékin : c'est toi le héros. Vanves : Hachette romans, coll. "Bibliothèque verte. Plus. Aventures sur mesure XXL", 10/2020, 144 p.  (ISBN 978-2-01-628922-8)
 À toi la finale. Vanves : Hachette romans, coll. "Top départ" no 1, 05/2021, 192 p.  (ISBN 978-2-01-711441-3)
 Jurassic World : camp cretaceous : c'est toi le héros. Vanves : Hachette romans, coll. "Bibliothèque verte. Plus. Aventures sur mesure XXL", 06/2021, 144 p.  (ISBN 978-2-01-713211-0)
 Le Bureau des légendes : mon livre d'enquête : d'après la série. Paris : Editions 404 - TOE - The Oligarchs Editions, 06/2022, 95 p.  (ISBN 979-10-324-0586-4)
@@ -740,40 +1550,124 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bertrand_Puard</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Publications pour les adultes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Séries
-Les Enquêtes de Milady
-Le Baiser de la Tulipes noire / avec Maxime Fontaine. Paris : Fleuve éditions, 11/2023, 301 p.  (ISBN 978-2-265-15783-5)
-Paris : Fleuve éditions, 07/2024, 301 p.  (ISBN 978-2-265-15793-4)
-L'Empire
-Ristretto. Paris : Fleuve Noir, 06/2019, 375 p.  (ISBN 978-2-265-11803-4)
-Paul Kite
-Musique de nuit. Paris : Librairie des Champs-Élysées, coll. "Le Masque" no 2449, 2001, 317 p.  (ISBN 2-7024-3028-7). Traduit en japonais.
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Les Enquêtes de Milady</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Le Baiser de la Tulipes noire / avec Maxime Fontaine. Paris : Fleuve éditions, 11/2023, 301 p.  (ISBN 978-2-265-15783-5)
+Paris : Fleuve éditions, 07/2024, 301 p.  (ISBN 978-2-265-15793-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Publications pour les adultes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>L'Empire</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ristretto. Paris : Fleuve Noir, 06/2019, 375 p.  (ISBN 978-2-265-11803-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertrand_Puard</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Publications pour les adultes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Paul Kite</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Musique de nuit. Paris : Librairie des Champs-Élysées, coll. "Le Masque" no 2449, 2001, 317 p.  (ISBN 2-7024-3028-7). Traduit en japonais.
 Alice au pays des cauchemars. Paris : Éd. du Masque, 2001, 280 p.  (ISBN 2-7-0-24--3072--4)</t>
         </is>
       </c>
